--- a/ExcelTable/samples/ooxdata3.xlsx
+++ b/ExcelTable/samples/ooxdata3.xlsx
@@ -13,6 +13,55 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bleronm</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>bleronm:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This is a comment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is 
+another comment
+on three lines</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
   <si>
@@ -342,9 +391,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -496,6 +545,25 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -854,8 +922,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1196,7 +1264,9 @@
   </sheetPr>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.109375" defaultRowHeight="13.95" customHeight="1"/>
   <cols>
@@ -1234,11 +1304,11 @@
       </c>
       <c r="C2">
         <f ca="1">RAND()*100000</f>
-        <v>66916.298630170437</v>
+        <v>70333.333906074287</v>
       </c>
       <c r="D2" s="8">
         <f ca="1">RAND()*10000</f>
-        <v>8687.4901834603734</v>
+        <v>26.187972798212833</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.95" customHeight="1">
@@ -1250,11 +1320,11 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="0">RAND()*100000</f>
-        <v>96701.342656338515</v>
+        <v>96392.497444660825</v>
       </c>
       <c r="D3" s="8">
         <f t="shared" ref="D3:D66" ca="1" si="1">RAND()*10000</f>
-        <v>2440.4254055883403</v>
+        <v>1596.4954946231824</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.95" customHeight="1">
@@ -1266,11 +1336,11 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>68778.869825412621</v>
+        <v>91234.878804873442</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4041.3933059058959</v>
+        <v>1733.6732003879529</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>106</v>
@@ -1285,11 +1355,11 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>95110.027969324423</v>
+        <v>1160.7190194882655</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2680.5781304350116</v>
+        <v>7398.3448598575578</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>106</v>
@@ -1304,11 +1374,11 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>62561.570810370307</v>
+        <v>50015.11141100066</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9956.7573958546473</v>
+        <v>6832.3975656223301</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.95" customHeight="1">
@@ -1320,11 +1390,11 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>28677.116620052322</v>
+        <v>82391.548107950817</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>8593.6326274078165</v>
+        <v>7770.5067250919328</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>106</v>
@@ -1339,11 +1409,11 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>16141.020198428469</v>
+        <v>74199.17140609042</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1055.0850023975888</v>
+        <v>4060.1795766544324</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1">
@@ -1355,11 +1425,11 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>80362.625635730539</v>
+        <v>31583.124180327315</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3915.5879836556041</v>
+        <v>3572.3572824192051</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1">
@@ -1371,11 +1441,11 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>10384.197326813726</v>
+        <v>92259.47841516904</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>928.20430418147919</v>
+        <v>3455.7801339817029</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.95" customHeight="1">
@@ -1387,11 +1457,11 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>5266.9097024035327</v>
+        <v>2782.1889553125702</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>7891.4941424058125</v>
+        <v>3938.7043759074404</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.95" customHeight="1">
@@ -1403,11 +1473,11 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>12513.06790819524</v>
+        <v>5735.5292944621715</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3105.9124421278693</v>
+        <v>9221.2889465209882</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.95" customHeight="1">
@@ -1419,11 +1489,11 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>66596.970749522152</v>
+        <v>77397.441384169419</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4830.2223411737359</v>
+        <v>6522.3678571451856</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.95" customHeight="1">
@@ -1435,11 +1505,11 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>47908.952048205465</v>
+        <v>89867.987098780766</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5643.9865221585196</v>
+        <v>1152.9851358467358</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1">
@@ -1451,11 +1521,11 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>34139.118069837692</v>
+        <v>48352.563934950245</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1588.3357099509788</v>
+        <v>4354.6595617976354</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1">
@@ -1467,11 +1537,11 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>82482.595106331893</v>
+        <v>85429.320315947814</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9701.6550626330518</v>
+        <v>3462.7004555013664</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.95" customHeight="1">
@@ -1483,11 +1553,11 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>57219.433955183609</v>
+        <v>53791.822615646037</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9781.057211103498</v>
+        <v>4280.6323811477487</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.95" customHeight="1">
@@ -1499,11 +1569,11 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>63812.888815764971</v>
+        <v>10067.239183523036</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>636.07523292470876</v>
+        <v>9059.0747639602487</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13.95" customHeight="1">
@@ -1515,11 +1585,11 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>35701.445190701728</v>
+        <v>4820.8113910388483</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5334.7653531447395</v>
+        <v>5181.634743231567</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13.95" customHeight="1">
@@ -1531,11 +1601,11 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>10387.165814822707</v>
+        <v>15579.981116038865</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1051.5712191235993</v>
+        <v>2001.508175243476</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.95" customHeight="1">
@@ -1547,11 +1617,11 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>13932.577493777786</v>
+        <v>42204.237549166115</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5897.3605343719137</v>
+        <v>2452.4189165078346</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1">
@@ -1563,11 +1633,11 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>19495.742971624619</v>
+        <v>80541.052265445251</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>242.31984007373697</v>
+        <v>7371.9871893701975</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>106</v>
@@ -1582,11 +1652,11 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>74094.881348629744</v>
+        <v>53466.336418255647</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9924.746268524128</v>
+        <v>8726.8522572478432</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13.95" customHeight="1">
@@ -1598,11 +1668,11 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>56899.390075191892</v>
+        <v>73684.819989272495</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3309.3713158477467</v>
+        <v>5474.6555187077211</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="13.95" customHeight="1">
@@ -1614,11 +1684,11 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>49242.721404498749</v>
+        <v>41939.514377592139</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9076.7521563817645</v>
+        <v>9762.8837175778954</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="13.95" customHeight="1">
@@ -1630,11 +1700,11 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>11109.786905213226</v>
+        <v>86885.8069599952</v>
       </c>
       <c r="D26" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6896.1102155957324</v>
+        <v>539.86244873328815</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.95" customHeight="1">
@@ -1646,11 +1716,11 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>45864.752837493208</v>
+        <v>98331.506447118139</v>
       </c>
       <c r="D27" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6685.800440694853</v>
+        <v>2504.7682504016479</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>106</v>
@@ -1665,11 +1735,11 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>41502.907423649485</v>
+        <v>1841.7628448810897</v>
       </c>
       <c r="D28" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9074.8172442262876</v>
+        <v>6520.9004119927895</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1">
@@ -1681,11 +1751,11 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>20622.573144803358</v>
+        <v>37966.617245195164</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3431.0410281829418</v>
+        <v>7610.1719618260513</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="13.95" customHeight="1">
@@ -1697,11 +1767,11 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>84179.336010372048</v>
+        <v>3322.7872545910755</v>
       </c>
       <c r="D30" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2177.6199729456634</v>
+        <v>9120.3057822719384</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>106</v>
@@ -1716,11 +1786,11 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>91988.227147328944</v>
+        <v>68407.725250745163</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1184.0034020096768</v>
+        <v>1236.9432648648981</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13.95" customHeight="1">
@@ -1732,11 +1802,11 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>65050.775818458729</v>
+        <v>7786.6531219625167</v>
       </c>
       <c r="D32" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4473.7011928831371</v>
+        <v>6405.0270721421484</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="13.95" customHeight="1">
@@ -1748,11 +1818,11 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>75392.008871372411</v>
+        <v>95776.461842628647</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6878.4888681124776</v>
+        <v>754.89215604514823</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="13.95" customHeight="1">
@@ -1764,11 +1834,11 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>39018.140307914036</v>
+        <v>39321.688908744349</v>
       </c>
       <c r="D34" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>8334.3557170282565</v>
+        <v>8879.2603467887238</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.95" customHeight="1">
@@ -1780,11 +1850,11 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>23341.824327330763</v>
+        <v>46344.902777903415</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>738.83127882032659</v>
+        <v>895.04474614573223</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.95" customHeight="1">
@@ -1796,11 +1866,11 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>552.87869714009116</v>
+        <v>46220.944467293637</v>
       </c>
       <c r="D36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1369.4571477990048</v>
+        <v>5361.779706235845</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="13.95" customHeight="1">
@@ -1812,11 +1882,11 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>34757.107660869144</v>
+        <v>20379.415712614613</v>
       </c>
       <c r="D37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>8410.4866264385382</v>
+        <v>4809.8155505150817</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="13.95" customHeight="1">
@@ -1828,11 +1898,11 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>1191.9387924280488</v>
+        <v>62710.58956696227</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1763.3808542729312</v>
+        <v>8521.6478981817636</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="13.95" customHeight="1">
@@ -1844,11 +1914,11 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>99104.834883377262</v>
+        <v>30311.165222447034</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1764.604336934219</v>
+        <v>6532.1627400948664</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13.95" customHeight="1">
@@ -1860,11 +1930,11 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>39139.434142777493</v>
+        <v>4287.1135110563509</v>
       </c>
       <c r="D40" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3635.1428190434485</v>
+        <v>1953.757731697614</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="13.95" customHeight="1">
@@ -1876,11 +1946,11 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>87097.494469606303</v>
+        <v>49470.079634381793</v>
       </c>
       <c r="D41" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6108.3847898500517</v>
+        <v>5102.8320911554647</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="13.95" customHeight="1">
@@ -1892,11 +1962,11 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>15051.636693125747</v>
+        <v>99783.692582027521</v>
       </c>
       <c r="D42" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>8019.040056819953</v>
+        <v>2148.5264666255889</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="13.95" customHeight="1">
@@ -1908,11 +1978,11 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>8381.6915690579481</v>
+        <v>62543.220110204122</v>
       </c>
       <c r="D43" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5636.8098281992516</v>
+        <v>8180.3482884333034</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="13.95" customHeight="1">
@@ -1924,11 +1994,11 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>59684.918331898371</v>
+        <v>21883.928274862898</v>
       </c>
       <c r="D44" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2196.1854374259415</v>
+        <v>5830.7004813088279</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="13.95" customHeight="1">
@@ -1940,11 +2010,11 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>40173.939206107789</v>
+        <v>42599.643149438132</v>
       </c>
       <c r="D45" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>448.23759950600726</v>
+        <v>4217.1087220462141</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="13.95" customHeight="1">
@@ -1956,11 +2026,11 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>10438.603538574043</v>
+        <v>16891.896994790433</v>
       </c>
       <c r="D46" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4939.7638237911324</v>
+        <v>7703.032115764332</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="13.95" customHeight="1">
@@ -1972,11 +2042,11 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>32604.760211852124</v>
+        <v>46487.235651524039</v>
       </c>
       <c r="D47" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>29.702818805583675</v>
+        <v>7761.0211880377556</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="13.95" customHeight="1">
@@ -1988,11 +2058,11 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>48364.463044151853</v>
+        <v>1579.656130759055</v>
       </c>
       <c r="D48" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9440.8260764794413</v>
+        <v>8387.6704035333842</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="13.95" customHeight="1">
@@ -2004,11 +2074,11 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>90709.820668266533</v>
+        <v>58584.168975580564</v>
       </c>
       <c r="D49" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9998.3821570189284</v>
+        <v>3681.7548884237185</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="13.95" customHeight="1">
@@ -2020,11 +2090,11 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>21860.335018104161</v>
+        <v>26158.254044994679</v>
       </c>
       <c r="D50" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6607.9482342435613</v>
+        <v>5925.9565233338308</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.95" customHeight="1">
@@ -2036,11 +2106,11 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>55285.850146173136</v>
+        <v>82847.071747331793</v>
       </c>
       <c r="D51" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2141.1280370005502</v>
+        <v>5436.0160800870099</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="13.95" customHeight="1">
@@ -2052,11 +2122,11 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>34176.87179329709</v>
+        <v>86757.959735102748</v>
       </c>
       <c r="D52" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3315.3500852149941</v>
+        <v>4309.4397788175074</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13.95" customHeight="1">
@@ -2068,11 +2138,11 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>42145.683280882105</v>
+        <v>8092.1940592058036</v>
       </c>
       <c r="D53" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3851.3749181179915</v>
+        <v>9859.8302703498321</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="13.95" customHeight="1">
@@ -2084,11 +2154,11 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>68606.075297290576</v>
+        <v>5797.3429531705815</v>
       </c>
       <c r="D54" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4918.0916500899393</v>
+        <v>1873.2409518221439</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="13.95" customHeight="1">
@@ -2100,11 +2170,11 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>52816.737014848346</v>
+        <v>53804.930936851815</v>
       </c>
       <c r="D55" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6530.2504001774241</v>
+        <v>1729.858371598363</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13.95" customHeight="1">
@@ -2116,11 +2186,11 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>18110.856084511794</v>
+        <v>4375.7514113554889</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4500.9122017454747</v>
+        <v>9372.4666107418834</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="13.95" customHeight="1">
@@ -2132,11 +2202,11 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>29462.609520955895</v>
+        <v>93646.683853804017</v>
       </c>
       <c r="D57" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1686.3814047833037</v>
+        <v>9864.7702753168342</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="13.95" customHeight="1">
@@ -2148,11 +2218,11 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>161.39199559668248</v>
+        <v>83851.126737493949</v>
       </c>
       <c r="D58" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4277.0549736733001</v>
+        <v>5003.1839560003191</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="13.95" customHeight="1">
@@ -2164,11 +2234,11 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>62252.803778097434</v>
+        <v>23100.887776466905</v>
       </c>
       <c r="D59" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3911.7147376789062</v>
+        <v>1328.5942211879842</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13.95" customHeight="1">
@@ -2180,11 +2250,11 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>91413.44945982199</v>
+        <v>22034.997065492145</v>
       </c>
       <c r="D60" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3336.6482724623211</v>
+        <v>3938.158450165723</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="13.95" customHeight="1">
@@ -2196,11 +2266,11 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>18056.504556019881</v>
+        <v>26888.92762329962</v>
       </c>
       <c r="D61" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6057.779905109619</v>
+        <v>7407.3513758234367</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="13.95" customHeight="1">
@@ -2212,11 +2282,11 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>3381.7627630034153</v>
+        <v>73266.426948674562</v>
       </c>
       <c r="D62" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>906.59445162271095</v>
+        <v>4527.9291632329423</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="13.95" customHeight="1">
@@ -2228,11 +2298,11 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>25908.06511287278</v>
+        <v>5850.019903902481</v>
       </c>
       <c r="D63" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5135.424580724015</v>
+        <v>5361.297309249906</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="13.95" customHeight="1">
@@ -2244,11 +2314,11 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>10562.676743626564</v>
+        <v>36332.717017092618</v>
       </c>
       <c r="D64" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9527.3115412389689</v>
+        <v>8335.3707471868074</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="13.95" customHeight="1">
@@ -2260,11 +2330,11 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>81797.347041594447</v>
+        <v>39412.554203837892</v>
       </c>
       <c r="D65" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>7275.6368585834871</v>
+        <v>1913.2200937901978</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="13.95" customHeight="1">
@@ -2276,11 +2346,11 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>44497.244849609888</v>
+        <v>4808.1904351070289</v>
       </c>
       <c r="D66" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1968.1797690237524</v>
+        <v>5615.6751831169595</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="13.95" customHeight="1">
@@ -2292,11 +2362,11 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C101" ca="1" si="2">RAND()*100000</f>
-        <v>26635.300797402993</v>
+        <v>54888.490371038759</v>
       </c>
       <c r="D67" s="8">
         <f t="shared" ref="D67:D101" ca="1" si="3">RAND()*10000</f>
-        <v>2054.2314272057192</v>
+        <v>8605.0308446716354</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="13.95" customHeight="1">
@@ -2308,11 +2378,11 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="2"/>
-        <v>98113.616941677508</v>
+        <v>3966.409607056587</v>
       </c>
       <c r="D68" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6165.6044133128999</v>
+        <v>7362.1681490106548</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="13.95" customHeight="1">
@@ -2324,11 +2394,11 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="2"/>
-        <v>87597.404573062304</v>
+        <v>2806.1509333900503</v>
       </c>
       <c r="D69" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5577.1784969124383</v>
+        <v>576.72989876140332</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="13.95" customHeight="1">
@@ -2340,11 +2410,11 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="2"/>
-        <v>2146.0988003142666</v>
+        <v>8220.6261434998542</v>
       </c>
       <c r="D70" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2990.4447246932332</v>
+        <v>6159.0869234422389</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="13.95" customHeight="1">
@@ -2356,11 +2426,11 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="2"/>
-        <v>12924.612586645879</v>
+        <v>40474.573562097074</v>
       </c>
       <c r="D71" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7683.8706565379052</v>
+        <v>4427.7587978688907</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="13.95" customHeight="1">
@@ -2372,11 +2442,11 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="2"/>
-        <v>15481.372114673242</v>
+        <v>95651.323735820697</v>
       </c>
       <c r="D72" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8003.3656761269522</v>
+        <v>1122.5673706771654</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="13.95" customHeight="1">
@@ -2388,11 +2458,11 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="2"/>
-        <v>99506.616719663827</v>
+        <v>81005.404547985658</v>
       </c>
       <c r="D73" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7284.0826519469992</v>
+        <v>8884.4785797175518</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="13.95" customHeight="1">
@@ -2404,11 +2474,11 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="2"/>
-        <v>42736.237177641364</v>
+        <v>27152.696341384886</v>
       </c>
       <c r="D74" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>803.31916636009032</v>
+        <v>7559.4947802075385</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="13.95" customHeight="1">
@@ -2420,11 +2490,11 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="2"/>
-        <v>90267.365822209293</v>
+        <v>44280.098284177693</v>
       </c>
       <c r="D75" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>270.77630349937817</v>
+        <v>4578.6330353864905</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="13.95" customHeight="1">
@@ -2436,11 +2506,11 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="2"/>
-        <v>42843.557563023802</v>
+        <v>96671.469143100301</v>
       </c>
       <c r="D76" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8162.0777023812252</v>
+        <v>2460.9165321062674</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="13.95" customHeight="1">
@@ -2452,11 +2522,11 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="2"/>
-        <v>63482.820677159471</v>
+        <v>1388.2354100020145</v>
       </c>
       <c r="D77" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2872.7738104295763</v>
+        <v>8625.5457165392054</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="13.95" customHeight="1">
@@ -2468,11 +2538,11 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="2"/>
-        <v>30982.966684592837</v>
+        <v>45092.615891365953</v>
       </c>
       <c r="D78" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6985.4563666828453</v>
+        <v>4246.6363708266572</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="13.95" customHeight="1">
@@ -2484,11 +2554,11 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="2"/>
-        <v>39400.23717677861</v>
+        <v>21323.842345931786</v>
       </c>
       <c r="D79" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>208.41540513448331</v>
+        <v>7540.9851000781546</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="13.95" customHeight="1">
@@ -2500,11 +2570,11 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="2"/>
-        <v>51817.582788684645</v>
+        <v>87489.839478125476</v>
       </c>
       <c r="D80" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6709.8107364581792</v>
+        <v>1933.291888398001</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="13.95" customHeight="1">
@@ -2516,11 +2586,11 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="2"/>
-        <v>61307.829052905414</v>
+        <v>48145.05539220928</v>
       </c>
       <c r="D81" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1398.8541665065068</v>
+        <v>1842.5205936104571</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="13.95" customHeight="1">
@@ -2532,11 +2602,11 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="2"/>
-        <v>1080.6391644661239</v>
+        <v>24529.953120946058</v>
       </c>
       <c r="D82" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5623.2430211063811</v>
+        <v>2802.0952978209834</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="13.95" customHeight="1">
@@ -2548,11 +2618,11 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="2"/>
-        <v>2995.8111474051029</v>
+        <v>19278.087025011282</v>
       </c>
       <c r="D83" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2732.1221843801613</v>
+        <v>8247.5972967718662</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="13.95" customHeight="1">
@@ -2564,11 +2634,11 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="2"/>
-        <v>8515.967431969606</v>
+        <v>39901.908676426086</v>
       </c>
       <c r="D84" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5169.7530512975036</v>
+        <v>3564.8694736414855</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="13.95" customHeight="1">
@@ -2580,11 +2650,11 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="2"/>
-        <v>31942.141387975931</v>
+        <v>50264.856968986773</v>
       </c>
       <c r="D85" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3299.4522800435711</v>
+        <v>6840.7593528820707</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="13.95" customHeight="1">
@@ -2596,11 +2666,11 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="2"/>
-        <v>82284.119084563921</v>
+        <v>3919.008228914267</v>
       </c>
       <c r="D86" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6992.9743341853464</v>
+        <v>8644.8208144198179</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="13.95" customHeight="1">
@@ -2612,11 +2682,11 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="2"/>
-        <v>40027.138631939029</v>
+        <v>68935.697687745997</v>
       </c>
       <c r="D87" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>239.39211463765099</v>
+        <v>3938.3794807546501</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="13.95" customHeight="1">
@@ -2628,11 +2698,11 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="2"/>
-        <v>24672.30619177052</v>
+        <v>4072.8920192386831</v>
       </c>
       <c r="D88" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2391.2191413867376</v>
+        <v>7016.4669218614354</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="13.95" customHeight="1">
@@ -2644,11 +2714,11 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="2"/>
-        <v>44131.555418332777</v>
+        <v>72356.463264928811</v>
       </c>
       <c r="D89" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>9418.742945205111</v>
+        <v>6188.0800934183444</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="13.95" customHeight="1">
@@ -2660,11 +2730,11 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="2"/>
-        <v>84746.893152220087</v>
+        <v>52839.47097958692</v>
       </c>
       <c r="D90" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4941.9338935960004</v>
+        <v>7162.2756151939802</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="13.95" customHeight="1">
@@ -2676,11 +2746,11 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="2"/>
-        <v>4533.6574764365696</v>
+        <v>30988.08475702093</v>
       </c>
       <c r="D91" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1854.1603700624544</v>
+        <v>721.66675031367424</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="13.95" customHeight="1">
@@ -2692,11 +2762,11 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="2"/>
-        <v>17446.521093230327</v>
+        <v>38744.442102450892</v>
       </c>
       <c r="D92" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8709.9444148778202</v>
+        <v>9887.2168010092228</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="13.95" customHeight="1">
@@ -2708,11 +2778,11 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="2"/>
-        <v>20136.344722814094</v>
+        <v>49957.36288131991</v>
       </c>
       <c r="D93" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5372.5172562687831</v>
+        <v>1617.9597154331836</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="13.95" customHeight="1">
@@ -2724,11 +2794,11 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="2"/>
-        <v>56177.002851091551</v>
+        <v>4278.4143470233848</v>
       </c>
       <c r="D94" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3053.3150961202814</v>
+        <v>4671.1158447407206</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="13.95" customHeight="1">
@@ -2740,11 +2810,11 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="2"/>
-        <v>35461.595612909361</v>
+        <v>26236.626725931255</v>
       </c>
       <c r="D95" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1420.4406862430828</v>
+        <v>8746.3805287545656</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="13.95" customHeight="1">
@@ -2756,11 +2826,11 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="2"/>
-        <v>96274.219270315298</v>
+        <v>81258.659940362049</v>
       </c>
       <c r="D96" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5212.9503598650736</v>
+        <v>5148.8523911851298</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="13.95" customHeight="1">
@@ -2772,11 +2842,11 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="2"/>
-        <v>29783.145972817059</v>
+        <v>14789.307380113836</v>
       </c>
       <c r="D97" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5575.992625173978</v>
+        <v>6139.7085155232389</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="13.95" customHeight="1">
@@ -2788,11 +2858,11 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="2"/>
-        <v>19857.766136056831</v>
+        <v>7099.1968051725253</v>
       </c>
       <c r="D98" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3335.8901830546774</v>
+        <v>5296.37754865026</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="13.95" customHeight="1">
@@ -2804,11 +2874,11 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="2"/>
-        <v>19504.396851834117</v>
+        <v>75317.341766464029</v>
       </c>
       <c r="D99" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6549.0806128855756</v>
+        <v>5442.0440224236354</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="13.95" customHeight="1">
@@ -2820,11 +2890,11 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="2"/>
-        <v>98675.867252992437</v>
+        <v>83314.109414643812</v>
       </c>
       <c r="D100" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2348.7369232668698</v>
+        <v>9386.3713780305952</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="13.95" customHeight="1">
@@ -2836,15 +2906,16 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="2"/>
-        <v>24288.288468217666</v>
+        <v>81253.086714677731</v>
       </c>
       <c r="D101" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7509.5597153082454</v>
+        <v>1370.2917438659235</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.8" right="0.8" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>